--- a/src/assets/ratings.xlsx
+++ b/src/assets/ratings.xlsx
@@ -8,24 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Desktop\Programming\Minesweeper stuff\llamasweeper\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C7821-B19D-4A10-9200-D71E1B254BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7164E9-6C26-4755-93F3-769F58633038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="1560" windowWidth="9570" windowHeight="8780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="matched up" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$38</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Game</t>
   </si>
@@ -138,9 +153,6 @@
     <t>open minesweeper</t>
   </si>
   <si>
-    <t>unrated</t>
-  </si>
-  <si>
     <t>carykh</t>
   </si>
   <si>
@@ -148,6 +160,166 @@
   </si>
   <si>
     <t>Well-knownness (very low/low/medium/high/very high)</t>
+  </si>
+  <si>
+    <t>Spread out rating</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JSON copy</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.9, 
+"popularity": 5</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.8, 
+"popularity": 5</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 5, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 2, 
+"popularity": 5</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.1, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.5, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.6, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.4, 
+"popularity": 2</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.7, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.5, 
+"popularity": 2</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 0, 
+"popularity": 4</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4, 
+"popularity": 2</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.4, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.9, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.2, 
+"popularity": 5</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.2, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.3, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.3, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.7, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3, 
+"popularity": 1</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.2, 
+"popularity": 2</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.4, 
+"popularity": 4</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.6, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.7, 
+"popularity": 4</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 2.9, 
+"popularity": 2</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.8, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 4.6, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.8, 
+"popularity": 3</t>
+  </si>
+  <si>
+    <t>, 
+"rating": 3.1, 
+"popularity": 1</t>
   </si>
 </sst>
 </file>
@@ -183,8 +355,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,21 +641,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.36328125" customWidth="1"/>
     <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="47.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,30 +666,54 @@
       <c r="C1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>", " &amp; CHAR(10) &amp; """rating"": " &amp; C2 &amp; ", " &amp; CHAR(10) &amp; """popularity"": " &amp; D2</f>
+        <v>, 
+"rating": 0, 
+"popularity": 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E38" si="0">", " &amp; CHAR(10) &amp; """rating"": " &amp; C3 &amp; ", " &amp; CHAR(10) &amp; """popularity"": " &amp; D3</f>
+        <v>, 
+"rating": 0, 
+"popularity": 4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -520,65 +721,119 @@
         <v>5</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 5, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
         <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 5, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.9, 
+"popularity": 5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C7">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.8, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>4.8</v>
+      </c>
+      <c r="C8">
+        <v>4.7</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>4.3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.7, 
+"popularity": 4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.6, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -586,10 +841,19 @@
         <v>4.8</v>
       </c>
       <c r="C10">
+        <v>4.7</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.7, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -597,307 +861,1109 @@
         <v>4.7</v>
       </c>
       <c r="C11">
+        <v>4.5</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.5, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>4.7</v>
+      </c>
+      <c r="C12">
+        <v>4.5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.5, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>4.7</v>
+      </c>
+      <c r="C13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.4, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C14">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.2, 
+"popularity": 5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>4.5</v>
-      </c>
-      <c r="C13">
+      <c r="B15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C15">
+        <v>4.3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.3, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C16">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4.5</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4.7</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.2, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>4.5999999999999996</v>
       </c>
       <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.3, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B18">
+        <v>4.5</v>
+      </c>
+      <c r="C18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4.1, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>4.5</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>4.5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 4, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C21">
+      <c r="B22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C22">
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.8, 
+"popularity": 5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C23">
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.8, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C24">
+        <v>3.9</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.9, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>4.3</v>
       </c>
-      <c r="C22">
+      <c r="C25">
+        <v>3.7</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.7, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>4.3</v>
+      </c>
+      <c r="C26">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.6, 
+"popularity": 3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>4.3</v>
+      </c>
+      <c r="C27">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.6, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>4.3</v>
+      </c>
+      <c r="C28">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.6, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>4.2</v>
+      </c>
+      <c r="C29">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.4, 
+"popularity": 4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>4.2</v>
+      </c>
+      <c r="C30">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.4, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>4.2</v>
+      </c>
+      <c r="C31">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.4, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>4.2</v>
+      </c>
+      <c r="C32">
+        <v>3.5</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>4.5</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>4.2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>3.8</v>
-      </c>
-      <c r="C27">
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.5, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C33">
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.2, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C34">
+        <v>3.1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3.1, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>25</v>
-      </c>
-      <c r="B28">
-        <v>4.2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>4.7</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>4.3</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>4.8</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>3.7</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>4.8</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>32</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 3, 
+"popularity": 1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.9</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 2.9, 
+"popularity": 2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>, 
+"rating": 2, 
+"popularity": 5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93913F99-C867-473E-A611-4B8D8ADDDA94}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.9, 
+"popularity": 5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.8, 
+"popularity": 5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 5, 
+"popularity": 3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 2, 
+"popularity": 5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.1, 
+"popularity": 3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.5, 
+"popularity": 1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.6, 
+"popularity": 1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.4, 
+"popularity": 2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.7, 
+"popularity": 1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.5, 
+"popularity": 2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 0, 
+"popularity": 4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4, 
+"popularity": 2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4, 
+"popularity": 2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.4, 
+"popularity": 1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.9, 
+"popularity": 1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.2, 
+"popularity": 5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.2, 
+"popularity": 1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 0, 
+"popularity": 4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.3, 
+"popularity": 3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.3, 
+"popularity": 1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.7, 
+"popularity": 3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3, 
+"popularity": 1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4, 
+"popularity": 2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.4, 
+"popularity": 2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.2, 
+"popularity": 2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.4, 
+"popularity": 4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3, 
+"popularity": 1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.5, 
+"popularity": 2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.6, 
+"popularity": 3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.7, 
+"popularity": 4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 2.9, 
+"popularity": 2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.8, 
+"popularity": 3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="str">
+        <f>VLOOKUP(A34,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 4.6, 
+"popularity": 3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="str">
+        <f>VLOOKUP(A35,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.6, 
+"popularity": 1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="str">
+        <f>VLOOKUP(A36,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 5, 
+"popularity": 3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="str">
+        <f>VLOOKUP(A37,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.8, 
+"popularity": 3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="str">
+        <f>VLOOKUP(A38,Sheet1!A:E,5,FALSE)</f>
+        <v>, 
+"rating": 3.1, 
+"popularity": 1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>